--- a/지텔프/기출 단어.xlsx
+++ b/지텔프/기출 단어.xlsx
@@ -5,14 +5,15 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\취춘\지텔프\단어\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\Desktop\Git_repo\TIL\지텔프\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28548" windowHeight="11616" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28548" windowHeight="11616" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
@@ -21,118 +22,118 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
+    <x:t>(걱정을) 덜어 주다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>implement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정답이 되는 유의어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장차 ~이 되려는</x:t>
+  </x:si>
+  <x:si>
+    <x:t>likewise</x:t>
+  </x:si>
+  <x:si>
+    <x:t>meanwhile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>급여 대상자 명단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aspiring</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몹시 당황하게 하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dominant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>after all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>suffrage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참정권, 투표권</x:t>
+  </x:si>
+  <x:si>
+    <x:t>in favor of</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유통, 배포</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시행하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>~을 지지하는</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구불구불하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>baffle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그동안에</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fall on</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마찬가지로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 유력한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payroll</x:t>
+  </x:si>
+  <x:si>
+    <x:t>~에 해당되다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dispute</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marsh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>distribution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>on account of</x:t>
+  </x:si>
+  <x:si>
+    <x:t>~으로 인하여, ~ 때문에</x:t>
+  </x:si>
+  <x:si>
     <x:t>습지</x:t>
   </x:si>
   <x:si>
-    <x:t>(걱정을) 덜어 주다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몹시 당황하게 하다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aspiring</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장차 ~이 되려는</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dominant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>likewise</x:t>
-  </x:si>
-  <x:si>
-    <x:t>meanwhile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>after all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>급여 대상자 명단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fall on</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마찬가지로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그동안에</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payroll</x:t>
-  </x:si>
-  <x:si>
-    <x:t>~에 해당되다</x:t>
+    <x:t>번호</x:t>
   </x:si>
   <x:si>
     <x:t>분쟁</x:t>
   </x:si>
   <x:si>
+    <x:t>결국</x:t>
+  </x:si>
+  <x:si>
     <x:t>영단어</x:t>
   </x:si>
   <x:si>
     <x:t>뜻</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dispute</x:t>
-  </x:si>
-  <x:si>
-    <x:t>implement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정답이 되는 유의어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marsh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 유력한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>~을 지지하는</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시행하다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유통, 배포</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구불구불하다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>baffle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ease</x:t>
-  </x:si>
-  <x:si>
-    <x:t>on account of</x:t>
-  </x:si>
-  <x:si>
-    <x:t>~으로 인하여, ~ 때문에</x:t>
-  </x:si>
-  <x:si>
-    <x:t>distribution</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>in favor of</x:t>
-  </x:si>
-  <x:si>
-    <x:t>suffrage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참정권, 투표권</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -229,7 +230,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -312,7 +312,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -347,7 +346,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -392,7 +390,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -436,7 +433,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -521,7 +517,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -542,7 +537,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -573,7 +567,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -941,7 +934,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:D134"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B3" activeCellId="0" sqref="B3:B3"/>
     </x:sheetView>
   </x:sheetViews>
@@ -955,186 +948,186 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="5"/>
       <x:c r="B2" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2"/>
       <x:c r="D2" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="5"/>
       <x:c r="B3" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C3" s="2"/>
       <x:c r="D3" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="5"/>
       <x:c r="B4" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="2"/>
       <x:c r="D4" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="5"/>
       <x:c r="B5" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="2"/>
       <x:c r="D5" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="5"/>
       <x:c r="B6" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="2"/>
       <x:c r="D6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="5"/>
       <x:c r="B7" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="2"/>
       <x:c r="D7" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="5"/>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="2"/>
       <x:c r="D8" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="5"/>
       <x:c r="B9" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="2"/>
       <x:c r="D9" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="5"/>
       <x:c r="B10" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="2"/>
       <x:c r="D10" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="5"/>
       <x:c r="B11" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C11" s="2"/>
       <x:c r="D11" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="5"/>
       <x:c r="B12" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C12" s="2"/>
       <x:c r="D12" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="5"/>
       <x:c r="B13" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="2"/>
       <x:c r="D13" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="5"/>
       <x:c r="B14" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C14" s="2"/>
       <x:c r="D14" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="5"/>
       <x:c r="B15" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C15" s="2"/>
       <x:c r="D15" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="5"/>
       <x:c r="B16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="2"/>
       <x:c r="D16" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="5"/>
       <x:c r="B17" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C17" s="2"/>
       <x:c r="D17" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="5"/>
       <x:c r="B18" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C18" s="2"/>
       <x:c r="D18" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -1837,4 +1830,20 @@
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet2"/>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
+  <x:sheetData/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>